--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Jeevan Scientific Technology Ltd/Pruned_Excel/Semi_Final/Jeevan Scientific Technology Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Jeevan Scientific Technology Ltd/Pruned_Excel/Semi_Final/Jeevan Scientific Technology Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="106">
   <si>
     <t>Balance Sheet of Jeevan Scientific Technology(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,49 +62,52 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Jeevan Scientific Technology(in Rs. Cr.)</t>
@@ -200,9 +206,6 @@
     <t>Quarterly Results of Jeevan Scientific Technology(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -260,49 +263,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -729,13 +693,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,619 +739,667 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
         <v>6.04</v>
-      </c>
-      <c r="C2">
-        <v>-1.81</v>
       </c>
       <c r="D2">
         <v>-1.81</v>
       </c>
       <c r="E2">
+        <v>-1.81</v>
+      </c>
+      <c r="F2">
         <v>4.23</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.14</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.15</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.4</v>
-      </c>
-      <c r="I2">
-        <v>1.84</v>
       </c>
       <c r="J2">
         <v>1.84</v>
       </c>
       <c r="K2">
+        <v>1.84</v>
+      </c>
+      <c r="L2">
         <v>2.47</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1.93</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4.4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
         <v>6.04</v>
-      </c>
-      <c r="C3">
-        <v>-1.75</v>
       </c>
       <c r="D3">
         <v>-1.75</v>
       </c>
       <c r="E3">
+        <v>-1.75</v>
+      </c>
+      <c r="F3">
         <v>4.29</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.21</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.14</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6.5</v>
-      </c>
-      <c r="I3">
-        <v>1.55</v>
       </c>
       <c r="J3">
         <v>1.55</v>
       </c>
       <c r="K3">
+        <v>1.55</v>
+      </c>
+      <c r="L3">
         <v>3.51</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.98</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
         <v>6.04</v>
-      </c>
-      <c r="C4">
-        <v>-1.71</v>
       </c>
       <c r="D4">
         <v>-1.71</v>
       </c>
       <c r="E4">
+        <v>-1.71</v>
+      </c>
+      <c r="F4">
         <v>4.33</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4.02</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8.84</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.76</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.89</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3.86</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4.98</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8.84</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
         <v>6.04</v>
-      </c>
-      <c r="C5">
-        <v>-3.93</v>
       </c>
       <c r="D5">
         <v>-3.93</v>
       </c>
       <c r="E5">
+        <v>-3.93</v>
+      </c>
+      <c r="F5">
         <v>2.11</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.84</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.37</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7.76</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.52</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.68</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3.65</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4.11</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>7.76</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>6.04</v>
-      </c>
-      <c r="C6">
-        <v>-3.7</v>
       </c>
       <c r="D6">
         <v>-3.7</v>
       </c>
       <c r="E6">
+        <v>-3.7</v>
+      </c>
+      <c r="F6">
         <v>2.34</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.1</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7.88</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.31</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.44</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2.79</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5.09</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>7.88</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>6.04</v>
-      </c>
-      <c r="C7">
-        <v>-2.26</v>
       </c>
       <c r="D7">
         <v>-2.26</v>
       </c>
       <c r="E7">
+        <v>-2.26</v>
+      </c>
+      <c r="F7">
         <v>3.78</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.46</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7.74</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>16.95</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.07</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.16</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6.71</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>10.24</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>16.95</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>6.04</v>
-      </c>
-      <c r="C8">
-        <v>-1.85</v>
       </c>
       <c r="D8">
         <v>-1.85</v>
       </c>
       <c r="E8">
+        <v>-1.85</v>
+      </c>
+      <c r="F8">
         <v>4.2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.24</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8.029999999999999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>20.58</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>8.1</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>8.6</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>9.880000000000001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>10.69</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>20.58</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
         <v>9.279999999999999</v>
-      </c>
-      <c r="C9">
-        <v>3.39</v>
       </c>
       <c r="D9">
         <v>3.39</v>
       </c>
       <c r="E9">
+        <v>3.39</v>
+      </c>
+      <c r="F9">
         <v>17.43</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3.78</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8.73</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>30.98</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10.52</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>13.83</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>17.37</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>13.61</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>30.98</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>11.46</v>
-      </c>
-      <c r="C10">
-        <v>8.109999999999999</v>
       </c>
       <c r="D10">
         <v>8.109999999999999</v>
       </c>
       <c r="E10">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F10">
         <v>22.7</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>7.42</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>16.54</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>49.29</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>18</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>23.79</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>28.85</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>20.45</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>49.29</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
         <v>15.3</v>
-      </c>
-      <c r="C11">
-        <v>17.47</v>
       </c>
       <c r="D11">
         <v>17.47</v>
       </c>
       <c r="E11">
+        <v>17.47</v>
+      </c>
+      <c r="F11">
         <v>32.77</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9.83</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>20.02</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>60.82</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>19.57</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>26.61</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>36.22</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>24.59</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>60.82</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
         <v>15.3</v>
-      </c>
-      <c r="C12">
-        <v>9.630000000000001</v>
       </c>
       <c r="D12">
         <v>9.630000000000001</v>
       </c>
       <c r="E12">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="F12">
         <v>24.93</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>9.65</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>19.79</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>52.88</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>17.73</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>23.69</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>36.19</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>16.68</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>52.88</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
         <v>15.3</v>
-      </c>
-      <c r="C13">
-        <v>20.95</v>
       </c>
       <c r="D13">
         <v>20.95</v>
       </c>
       <c r="E13">
+        <v>20.95</v>
+      </c>
+      <c r="F13">
         <v>36.25</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>15.02</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>19.44</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>63.78</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>15.87</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>20.53</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>32.82</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>30.96</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>63.78</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
         <v>15.3</v>
-      </c>
-      <c r="C14">
-        <v>35.28</v>
       </c>
       <c r="D14">
         <v>35.28</v>
       </c>
       <c r="E14">
+        <v>35.28</v>
+      </c>
+      <c r="F14">
         <v>50.58</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>7.01</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>22.15</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>77.88</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>14.1</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>19.07</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>23.94</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>53.94</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>77.88</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
         <v>15.48</v>
-      </c>
-      <c r="C15">
-        <v>32.84</v>
       </c>
       <c r="D15">
         <v>32.84</v>
       </c>
       <c r="E15">
+        <v>32.84</v>
+      </c>
+      <c r="F15">
         <v>48.32</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4.87</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10.44</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>63.76</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>18</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>24.03</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>35.81</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>27.95</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>63.76</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
         <v>15.48</v>
-      </c>
-      <c r="C16">
-        <v>33.32</v>
       </c>
       <c r="D16">
         <v>33.32</v>
       </c>
       <c r="E16">
+        <v>33.32</v>
+      </c>
+      <c r="F16">
         <v>48.8</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3.83</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>8.17</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>59.91</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>14.67</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>20.2</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>35.69</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>24.23</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>59.91</v>
       </c>
     </row>
@@ -1398,473 +1410,521 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
         <v>-0.46</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.01</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.02</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.01</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>-0.02</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.64</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
         <v>0.06</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.57</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.35</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.92</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
         <v>0.04</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-2.14</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.7</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
         <v>-2.21</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.7</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.06</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.75</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.03</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>0.23</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.27</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.03</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.22</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0.03</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.02</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>1.44</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2.39</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-4.59</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.21</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0.01</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.05</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>0.64</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3.95</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-4.07</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.23</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.11</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.06</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.17</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
         <v>1.11</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-8.130000000000001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-6.41</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>14.57</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.03</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.17</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>0.48</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3.73</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-12.43</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9.880000000000001</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1.18</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.37</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
         <v>1.62</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2.41</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-6.2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6.07</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>2.28</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.37</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.66</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
         <v>-7.84</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-1.19</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-1.02</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.44</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>-1.77</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3.66</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.88</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
         <v>13.18</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>4.73</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.8</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.13</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3.8</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.88</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5.68</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
         <v>18.35</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>27.09</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-2.23</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.77</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>24.08</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5.68</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>29.77</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
         <v>-3.62</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-8.77</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-7.27</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-7.55</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>-23.59</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>29.71</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>6.12</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
         <v>-1.23</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.74</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-4.69</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-3.66</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>-5.61</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>6.12</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.51</v>
       </c>
     </row>
@@ -1875,86 +1935,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>59</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>0.58</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2">
         <v>0.58</v>
@@ -1963,37 +2026,37 @@
         <v>0.58</v>
       </c>
       <c r="E2">
+        <v>0.58</v>
+      </c>
+      <c r="F2">
         <v>0.03</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.61</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0.25</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>0.22</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.32</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1.07</v>
-      </c>
-      <c r="M2">
-        <v>-0.46</v>
       </c>
       <c r="N2">
         <v>-0.46</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2002,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>-0.46</v>
@@ -2011,18 +2074,21 @@
         <v>-0.46</v>
       </c>
       <c r="U2">
-        <v>-0.77</v>
+        <v>-0.46</v>
       </c>
       <c r="V2">
         <v>-0.77</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>2.45</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
       <c r="C3">
         <v>2.45</v>
@@ -2031,37 +2097,37 @@
         <v>2.45</v>
       </c>
       <c r="E3">
+        <v>2.45</v>
+      </c>
+      <c r="F3">
         <v>0.01</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.47</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.01</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.96</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.08</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.17</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.18</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.4</v>
-      </c>
-      <c r="M3">
-        <v>0.06</v>
       </c>
       <c r="N3">
         <v>0.06</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2070,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.06</v>
@@ -2079,18 +2145,21 @@
         <v>0.06</v>
       </c>
       <c r="U3">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="V3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>3.35</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
       <c r="C4">
         <v>3.35</v>
@@ -2099,37 +2168,37 @@
         <v>3.35</v>
       </c>
       <c r="E4">
+        <v>3.35</v>
+      </c>
+      <c r="F4">
         <v>0.01</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.36</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.22</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.34</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3.32</v>
-      </c>
-      <c r="M4">
-        <v>0.04</v>
       </c>
       <c r="N4">
         <v>0.04</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2138,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0.04</v>
@@ -2147,18 +2216,21 @@
         <v>0.04</v>
       </c>
       <c r="U4">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="V4">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>1.26</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
       <c r="C5">
         <v>1.26</v>
@@ -2167,37 +2239,37 @@
         <v>1.26</v>
       </c>
       <c r="E5">
+        <v>1.26</v>
+      </c>
+      <c r="F5">
         <v>0.03</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.29</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.01</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.03</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.58</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.27</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.62</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3.51</v>
-      </c>
-      <c r="M5">
-        <v>-2.21</v>
       </c>
       <c r="N5">
         <v>-2.21</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2206,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>-2.21</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>-2.21</v>
@@ -2215,18 +2287,21 @@
         <v>-2.21</v>
       </c>
       <c r="U5">
-        <v>-3.67</v>
+        <v>-2.21</v>
       </c>
       <c r="V5">
         <v>-3.67</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>-3.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>6.37</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
       </c>
       <c r="C6">
         <v>6.37</v>
@@ -2235,37 +2310,37 @@
         <v>6.37</v>
       </c>
       <c r="E6">
+        <v>6.37</v>
+      </c>
+      <c r="F6">
         <v>0.1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6.47</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.66</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.27</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4.3</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>6.24</v>
-      </c>
-      <c r="M6">
-        <v>0.23</v>
       </c>
       <c r="N6">
         <v>0.23</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2274,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0.23</v>
@@ -2283,18 +2358,21 @@
         <v>0.23</v>
       </c>
       <c r="U6">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="V6">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>13.45</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
       </c>
       <c r="C7">
         <v>13.45</v>
@@ -2303,37 +2381,37 @@
         <v>13.45</v>
       </c>
       <c r="E7">
+        <v>13.45</v>
+      </c>
+      <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>13.54</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1.05</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.74</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.28</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>10.03</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>12.11</v>
-      </c>
-      <c r="M7">
-        <v>1.44</v>
       </c>
       <c r="N7">
         <v>1.44</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2342,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>1.44</v>
@@ -2351,18 +2429,21 @@
         <v>1.44</v>
       </c>
       <c r="U7">
-        <v>2.38</v>
+        <v>1.44</v>
       </c>
       <c r="V7">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>17.34</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
       </c>
       <c r="C8">
         <v>17.34</v>
@@ -2371,46 +2452,46 @@
         <v>17.34</v>
       </c>
       <c r="E8">
+        <v>17.34</v>
+      </c>
+      <c r="F8">
         <v>0.4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>17.74</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.15</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.25</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.28</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.67</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>11.75</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>17.1</v>
-      </c>
-      <c r="M8">
-        <v>0.64</v>
       </c>
       <c r="N8">
         <v>0.64</v>
       </c>
       <c r="O8">
+        <v>0.64</v>
+      </c>
+      <c r="P8">
         <v>0.12</v>
-      </c>
-      <c r="P8">
-        <v>0.22</v>
       </c>
       <c r="Q8">
         <v>0.22</v>
       </c>
       <c r="R8">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="S8">
         <v>0.42</v>
@@ -2419,18 +2500,21 @@
         <v>0.42</v>
       </c>
       <c r="U8">
-        <v>0.6899999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="V8">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>17.46</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
       </c>
       <c r="C9">
         <v>17.46</v>
@@ -2439,46 +2523,46 @@
         <v>17.46</v>
       </c>
       <c r="E9">
+        <v>17.46</v>
+      </c>
+      <c r="F9">
         <v>0.57</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>18.03</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.16</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.84</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.36</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.18</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>12.36</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>16.9</v>
-      </c>
-      <c r="M9">
-        <v>1.13</v>
       </c>
       <c r="N9">
         <v>1.13</v>
       </c>
       <c r="O9">
+        <v>1.13</v>
+      </c>
+      <c r="P9">
         <v>0.25</v>
-      </c>
-      <c r="P9">
-        <v>0.1</v>
       </c>
       <c r="Q9">
         <v>0.1</v>
       </c>
       <c r="R9">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="S9">
         <v>1.03</v>
@@ -2487,18 +2571,21 @@
         <v>1.03</v>
       </c>
       <c r="U9">
+        <v>1.03</v>
+      </c>
+      <c r="V9">
         <v>0.95</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1.33</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>19.26</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
       </c>
       <c r="C10">
         <v>19.26</v>
@@ -2507,46 +2594,46 @@
         <v>19.26</v>
       </c>
       <c r="E10">
+        <v>19.26</v>
+      </c>
+      <c r="F10">
         <v>0.9</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>20.17</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4.99</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.66</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2.06</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>9.67</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>19.68</v>
-      </c>
-      <c r="M10">
-        <v>0.48</v>
       </c>
       <c r="N10">
         <v>0.48</v>
       </c>
       <c r="O10">
+        <v>0.48</v>
+      </c>
+      <c r="P10">
         <v>0.09</v>
-      </c>
-      <c r="P10">
-        <v>0.24</v>
       </c>
       <c r="Q10">
         <v>0.24</v>
       </c>
       <c r="R10">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="S10">
         <v>0.25</v>
@@ -2555,18 +2642,21 @@
         <v>0.25</v>
       </c>
       <c r="U10">
+        <v>0.25</v>
+      </c>
+      <c r="V10">
         <v>0.27</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>25.43</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
       </c>
       <c r="C11">
         <v>25.43</v>
@@ -2575,46 +2665,46 @@
         <v>25.43</v>
       </c>
       <c r="E11">
+        <v>25.43</v>
+      </c>
+      <c r="F11">
         <v>0.97</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>26.4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.64</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7.92</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.76</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>3.07</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>10.39</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>24.78</v>
-      </c>
-      <c r="M11">
-        <v>1.62</v>
       </c>
       <c r="N11">
         <v>1.62</v>
       </c>
       <c r="O11">
+        <v>1.62</v>
+      </c>
+      <c r="P11">
         <v>0.33</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.27</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.26</v>
-      </c>
-      <c r="R11">
-        <v>1.36</v>
       </c>
       <c r="S11">
         <v>1.36</v>
@@ -2623,18 +2713,21 @@
         <v>1.36</v>
       </c>
       <c r="U11">
+        <v>1.36</v>
+      </c>
+      <c r="V11">
         <v>0.9</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.9399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>20.57</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
       </c>
       <c r="C12">
         <v>20.57</v>
@@ -2643,46 +2736,46 @@
         <v>20.57</v>
       </c>
       <c r="E12">
+        <v>20.57</v>
+      </c>
+      <c r="F12">
         <v>2.52</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>23.09</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1.57</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>8.210000000000001</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.32</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3.91</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>17.56</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>32.86</v>
-      </c>
-      <c r="M12">
-        <v>-9.77</v>
       </c>
       <c r="N12">
         <v>-9.77</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-9.77</v>
       </c>
       <c r="P12">
-        <v>-1.96</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>-1.96</v>
       </c>
       <c r="R12">
-        <v>-7.81</v>
+        <v>-1.96</v>
       </c>
       <c r="S12">
         <v>-7.81</v>
@@ -2691,18 +2784,21 @@
         <v>-7.81</v>
       </c>
       <c r="U12">
-        <v>-5.12</v>
+        <v>-7.81</v>
       </c>
       <c r="V12">
         <v>-5.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>-5.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>40.47</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
       <c r="C13">
         <v>40.47</v>
@@ -2711,46 +2807,46 @@
         <v>40.47</v>
       </c>
       <c r="E13">
+        <v>40.47</v>
+      </c>
+      <c r="F13">
         <v>2.38</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>42.85</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2.75</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>9.18</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.78</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3.96</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>14.12</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>29.67</v>
-      </c>
-      <c r="M13">
-        <v>13.18</v>
       </c>
       <c r="N13">
         <v>13.18</v>
       </c>
       <c r="O13">
+        <v>13.18</v>
+      </c>
+      <c r="P13">
         <v>1.73</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.97</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1.92</v>
-      </c>
-      <c r="R13">
-        <v>11.26</v>
       </c>
       <c r="S13">
         <v>11.26</v>
@@ -2759,18 +2855,21 @@
         <v>11.26</v>
       </c>
       <c r="U13">
-        <v>7.4</v>
+        <v>11.26</v>
       </c>
       <c r="V13">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>56.55</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14">
         <v>56.55</v>
@@ -2779,46 +2878,46 @@
         <v>56.55</v>
       </c>
       <c r="E14">
+        <v>56.55</v>
+      </c>
+      <c r="F14">
         <v>5.91</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>62.46</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.69</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>15.02</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.96</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3.68</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>17.06</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>44.12</v>
-      </c>
-      <c r="M14">
-        <v>18.35</v>
       </c>
       <c r="N14">
         <v>18.35</v>
       </c>
       <c r="O14">
+        <v>18.35</v>
+      </c>
+      <c r="P14">
         <v>3.58</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1.11</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>6.09</v>
-      </c>
-      <c r="R14">
-        <v>12.26</v>
       </c>
       <c r="S14">
         <v>12.26</v>
@@ -2827,18 +2926,21 @@
         <v>12.26</v>
       </c>
       <c r="U14">
+        <v>12.26</v>
+      </c>
+      <c r="V14">
         <v>8.15</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>7.73</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>36.18</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
       <c r="C15">
         <v>36.18</v>
@@ -2847,46 +2949,46 @@
         <v>36.18</v>
       </c>
       <c r="E15">
+        <v>36.18</v>
+      </c>
+      <c r="F15">
         <v>1.06</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>37.24</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.46</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>14.87</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.95</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5.02</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>17.02</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>40.86</v>
-      </c>
-      <c r="M15">
-        <v>-3.62</v>
       </c>
       <c r="N15">
         <v>-3.62</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>-3.62</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>-1.11</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-0.62</v>
-      </c>
-      <c r="R15">
-        <v>-3</v>
       </c>
       <c r="S15">
         <v>-3</v>
@@ -2895,18 +2997,21 @@
         <v>-3</v>
       </c>
       <c r="U15">
-        <v>-1.96</v>
+        <v>-3</v>
       </c>
       <c r="V15">
         <v>-1.96</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>-1.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>38.5</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
       <c r="C16">
         <v>38.5</v>
@@ -2915,46 +3020,46 @@
         <v>38.5</v>
       </c>
       <c r="E16">
+        <v>38.5</v>
+      </c>
+      <c r="F16">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>39.19</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.68</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15.18</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.73</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5.55</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>15.28</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>40.42</v>
-      </c>
-      <c r="M16">
-        <v>-1.23</v>
       </c>
       <c r="N16">
         <v>-1.23</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>-1.23</v>
       </c>
       <c r="P16">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>-0.18</v>
       </c>
       <c r="R16">
-        <v>-1.05</v>
+        <v>-0.18</v>
       </c>
       <c r="S16">
         <v>-1.05</v>
@@ -2963,9 +3068,12 @@
         <v>-1.05</v>
       </c>
       <c r="U16">
+        <v>-1.05</v>
+      </c>
+      <c r="V16">
         <v>-0.68</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-0.68</v>
       </c>
     </row>
@@ -2984,84 +3092,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>0.11</v>
@@ -3126,13 +3234,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <v>2.43</v>
@@ -3197,13 +3305,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>3.72</v>
@@ -3268,13 +3376,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>3.15</v>
@@ -3339,13 +3447,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>3.82</v>
@@ -3410,13 +3518,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>3.38</v>
@@ -3481,13 +3589,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>3.1</v>
@@ -3552,13 +3660,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>4.36</v>
@@ -3623,13 +3731,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>4.47</v>
@@ -3694,13 +3802,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <v>4.77</v>
@@ -3765,13 +3873,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D12">
         <v>3.74</v>
@@ -3836,13 +3944,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D13">
         <v>4.29</v>
@@ -3907,13 +4015,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -3978,13 +4086,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>4.11</v>
@@ -4049,13 +4157,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D16">
         <v>5.3</v>
@@ -4120,13 +4228,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D17">
         <v>5.03</v>
@@ -4191,13 +4299,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
         <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
       </c>
       <c r="D18">
         <v>4.83</v>
@@ -4262,13 +4370,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>5.39</v>
@@ -4333,13 +4441,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>4.01</v>
@@ -4404,13 +4512,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>5.86</v>
@@ -4475,13 +4583,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D22">
         <v>7.51</v>
@@ -4546,13 +4654,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
         <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
       </c>
       <c r="D23">
         <v>7.83</v>
@@ -4617,13 +4725,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
         <v>86</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>98</v>
       </c>
       <c r="D24">
         <v>4.23</v>
@@ -4688,13 +4796,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D25">
         <v>2.91</v>
@@ -4759,13 +4867,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>4.82</v>
@@ -4830,13 +4938,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D27">
         <v>7.27</v>
@@ -4901,13 +5009,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D28">
         <v>6.52</v>
@@ -4972,13 +5080,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
       </c>
       <c r="D29">
         <v>3.11</v>
@@ -5043,13 +5151,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>9.970000000000001</v>
@@ -5114,13 +5222,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D31">
         <v>14.42</v>
@@ -5185,13 +5293,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D32">
         <v>13.56</v>
@@ -5256,13 +5364,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <v>13.76</v>
@@ -5327,13 +5435,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <v>16.08</v>
@@ -5398,13 +5506,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D35">
         <v>16.07</v>
@@ -5469,13 +5577,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <v>10.65</v>
@@ -5540,13 +5648,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D37">
         <v>10.33</v>
@@ -5611,13 +5719,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D38">
         <v>7.97</v>
@@ -5682,13 +5790,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D39">
         <v>9.949999999999999</v>
@@ -5753,13 +5861,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D40">
         <v>7.93</v>
@@ -5824,13 +5932,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D41">
         <v>10.39</v>
@@ -5895,13 +6003,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D42">
         <v>8.06</v>
@@ -5966,13 +6074,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D43">
         <v>10.13</v>
@@ -6037,13 +6145,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D44">
         <v>9.92</v>
@@ -6108,13 +6216,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D45">
         <v>12.52</v>
@@ -6179,13 +6287,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D46">
         <v>10.3</v>
@@ -6255,111 +6363,114 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
         <v>0.95</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.75</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.76</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.77</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-41.78</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-79.27</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-79.70999999999999</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-80.41</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-10.93</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-10.51</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.01</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -6372,162 +6483,171 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
         <v>4.06</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.53</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.24</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
       </c>
       <c r="F3">
         <v>0.1</v>
       </c>
       <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
         <v>12.99</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.9</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.58</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2.57</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.47</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.97</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.27</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
         <v>5.55</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.08</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.72</v>
-      </c>
-      <c r="E4">
-        <v>0.06</v>
       </c>
       <c r="F4">
         <v>0.06</v>
       </c>
       <c r="G4">
+        <v>0.06</v>
+      </c>
+      <c r="H4">
         <v>19.41</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12.93</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.14</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.12</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.86</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.42</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.85</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
         <v>2.09</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-2.27</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-2.71</v>
-      </c>
-      <c r="E5">
-        <v>-3.67</v>
       </c>
       <c r="F5">
         <v>-3.67</v>
       </c>
       <c r="G5">
+        <v>-3.67</v>
+      </c>
+      <c r="H5">
         <v>-108.46</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-129.55</v>
-      </c>
-      <c r="I5">
-        <v>-175.42</v>
       </c>
       <c r="J5">
         <v>-175.42</v>
       </c>
       <c r="K5">
+        <v>-175.42</v>
+      </c>
+      <c r="L5">
         <v>-104.78</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-28.54</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.09</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
@@ -6540,162 +6660,171 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>10.54</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.93</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.47</v>
-      </c>
-      <c r="E6">
-        <v>0.38</v>
       </c>
       <c r="F6">
         <v>0.38</v>
       </c>
       <c r="G6">
+        <v>0.38</v>
+      </c>
+      <c r="H6">
         <v>18.27</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>13.99</v>
-      </c>
-      <c r="I6">
-        <v>3.57</v>
       </c>
       <c r="J6">
         <v>3.57</v>
       </c>
       <c r="K6">
+        <v>3.57</v>
+      </c>
+      <c r="L6">
         <v>9.710000000000001</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.88</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.79</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>100</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>22.26</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4.07</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3.61</v>
-      </c>
-      <c r="E7">
-        <v>2.38</v>
       </c>
       <c r="F7">
         <v>2.38</v>
       </c>
       <c r="G7">
+        <v>2.38</v>
+      </c>
+      <c r="H7">
         <v>18.26</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>16.2</v>
-      </c>
-      <c r="I7">
-        <v>10.68</v>
       </c>
       <c r="J7">
         <v>10.68</v>
       </c>
       <c r="K7">
+        <v>10.68</v>
+      </c>
+      <c r="L7">
         <v>38.02</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>8.470000000000001</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.68</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>100</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>15.27</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>6.22</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>28.7</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4.29</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3.18</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.06</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.6899999999999999</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>14.93</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>11.06</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3.7</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2.41</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>9.99</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2.03</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.57</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -6703,55 +6832,58 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>34.04</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>13.15</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
         <v>18.82</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3.96</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.69</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.22</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.11</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21.03</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>14.27</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>6.46</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5.91</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5.92</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3.33</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.41</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -6759,55 +6891,58 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>44.41</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>12.09</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>16.81</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3.68</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.87</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.42</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.22</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21.86</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>11.15</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.51</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.28</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1.08</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.5</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.74</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -6815,55 +6950,58 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>63.29</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>15.02</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
         <v>16.62</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4.22</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2.21</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.06</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.89</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>25.36</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>13.27</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6.36</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>5.34</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4.14</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2.23</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.45</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -6871,55 +7009,58 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>54.91</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>8.51</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
         <v>13.44</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-2.32</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-4.87</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-6.39</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-5.11</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-17.23</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-36.23</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-47.5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-37.99</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-31.34</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-14.77</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.61</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -6927,55 +7068,58 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>38.1</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-10.75</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
         <v>26.45</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>12.36</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>9.77</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>8.609999999999999</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7.36</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>46.72</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>36.95</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>32.56</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>27.82</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>31.06</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>17.65</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.22</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0</v>
       </c>
@@ -6983,167 +7127,176 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>95.93000000000001</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>5.07</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
         <v>36.96</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>15.02</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>12.62</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>11.99</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>8.01</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>40.64</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>34.13</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>32.44</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>21.68</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>24.24</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>15.74</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.25</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>6.23</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>4.79</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>93.77</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>181.54</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>7.9</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
         <v>23.37</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.52</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-1.73</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-2.34</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-1.94</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6.5</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-7.38</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-10</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-8.300000000000001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-6.21</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-4.71</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.13</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-61.14</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>90.87</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>161.14</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>75.5</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>32.09</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
         <v>24.87</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3.26</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.32</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.79</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.68</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>13.11</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-1.28</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-3.19</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-2.72</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-2.15</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-1.75</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.09</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
         <v>0</v>
       </c>
@@ -7151,9 +7304,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>83.05</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>16.44</v>
       </c>
     </row>
